--- a/biology/Zoologie/Compsoscorpius_buthiformis/Compsoscorpius_buthiformis.xlsx
+++ b/biology/Zoologie/Compsoscorpius_buthiformis/Compsoscorpius_buthiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Compsoscorpius
 Compsoscorpius buthiformis, représentant du genre Compsoscorpius, est une espèce fossile de scorpions à l'appartenance familiale incertaine.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte à Coseley et Kilburn en Angleterre. Elle date du Carbonifère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte à Coseley et Kilburn en Angleterre. Elle date du Carbonifère.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 21 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 21 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Anthracoscorpius buthiformis par Pocock en 1911. Elle est placée dans le genre Buthiscorpius par Petrunkevitch en 1949[3] puis dans le genre Compsoscorpius par Legg, Garwood, Dunlop et Sutton en 2012[4] qui dans le même temps placent Compsoscorpius elegans en synonymie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Anthracoscorpius buthiformis par Pocock en 1911. Elle est placée dans le genre Buthiscorpius par Petrunkevitch en 1949 puis dans le genre Compsoscorpius par Legg, Garwood, Dunlop et Sutton en 2012 qui dans le même temps placent Compsoscorpius elegans en synonymie.
 </t>
         </is>
       </c>
